--- a/medicine/Enfance/Claudia_Salvatori/Claudia_Salvatori.xlsx
+++ b/medicine/Enfance/Claudia_Salvatori/Claudia_Salvatori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claudia Salvatori, née le 27 juillet 1954 à Gênes, en Ligurie, est une romancière et une scénariste de fumetti italienne. Ses écrits ne sont pas traduits en français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle débute comme scénariste de fumetti à la fin des années 1970. De 1985 à 2000, elle travaille pour Editoria Disney, une filiale de la The Walt Disney Company Italia. Elle collabore ainsi à de nombreux numéros du magazine pour la jeunesse Topolino.
 En parallèle, elle se lance dans l’écriture de romans et nouvelles. Elle publie de nombreux textes dans les genres du roman policier, du roman d'espionnage, du roman noir et du giallo. Elle remporte le prix Scerbanenco en 2001 pour son roman noir Sublime anima di donna. Elle collabore également avec divers magazines féminins, dont plusieurs titres du groupe de presse italien Arnoldo Mondadori Editore.
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Walkiria Nera
-La genesi del male (2007)
+          <t>Série Walkiria Nera</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La genesi del male (2007)
 Rifiutato dal mare (2008)
 Golden Dawn (2008)
-Progetto Lebensborn (2012)
-Autres romans
-Più tardi da Amelia (1985)
+Progetto Lebensborn (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Più tardi da Amelia (1985)
 La donna senza testa (1990)
 Columbus Day (1992)
 Superman non muore mai (1994)
@@ -568,9 +621,43 @@
 Abel (2009)
 Il mago e l'imperatrice (2010)
 Il sole invincibile (2011)
-Il cavaliere d'Islanda (2012)
-Nouvelles
-Il volo dell’elefante (1997)
+Il cavaliere d'Islanda (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il volo dell’elefante (1997)
 Serial killer mon amour (2000)
 Nel corpo della dark lady (2000)
 Messe nere a Milano (2001)
@@ -591,63 +678,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Claudia_Salvatori</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fumetti</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Claudia_Salvatori</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Filmographie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Comme auteur adapté
-2001 : Amorestremo (it), film italien réalisé par Maria Martinelli d’après le roman Schiavo e padrona, avec Rocco Siffredi.</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -669,14 +699,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vidéoclip</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2010 : Naike Rivelli - Unspoken (avec Naike Rivelli, Anastasia Rage et Claudia Salvatori)[1]</t>
-        </is>
-      </c>
+          <t>Fumetti</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -699,10 +727,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comme auteur adapté</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2001 : Amorestremo (it), film italien réalisé par Maria Martinelli d’après le roman Schiavo e padrona, avec Rocco Siffredi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vidéoclip</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2010 : Naike Rivelli - Unspoken (avec Naike Rivelli, Anastasia Rage et Claudia Salvatori)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudia_Salvatori</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix Tedeschi (it) 1985 pour Più tardi da Amelia.
 Prix Scerbanenco 2001 pour Sublime anima di donna.</t>
